--- a/TESTING REPORTS/CoreClient/UTC_CC001.xlsx
+++ b/TESTING REPORTS/CoreClient/UTC_CC001.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644"/>
   </bookViews>
   <sheets>
     <sheet name="Document Information" sheetId="3" r:id="rId1"/>
     <sheet name="Test Case " sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Hlk109049109" localSheetId="0">'Document Information'!$G$53</definedName>
@@ -228,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="129">
   <si>
     <t>Project Name</t>
   </si>
@@ -588,18 +587,6 @@
     <t>29/12/25</t>
   </si>
   <si>
-    <t>Sn.</t>
-  </si>
-  <si>
-    <t>Test Name</t>
-  </si>
-  <si>
-    <t>Test Description</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>GetIoValuesAsync_ReturnsEmpty_WhenResponseNull()</t>
   </si>
   <si>
@@ -633,9 +620,6 @@
       </rPr>
       <t>UiTcpClient.IsConnected = false</t>
     </r>
-  </si>
-  <si>
-    <t>✅ Pass</t>
   </si>
   <si>
     <t>WriteTagAsync_ReturnsFalse_WhenDisconnected()</t>
@@ -831,7 +815,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1070,13 +1054,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1089,7 +1066,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1132,14 +1109,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1626,21 +1597,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDDDDDD"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDDDDDD"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDDDDDD"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDDDDDD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1649,7 +1605,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1838,6 +1794,191 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="25" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1847,7 +1988,63 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1855,263 +2052,44 @@
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="25" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2140,63 +2118,32 @@
     <xf numFmtId="0" fontId="30" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2239,7 +2186,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74D15C3C-D5E4-6727-1AE1-954AD9ED6D01}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D15C3C-D5E4-6727-1AE1-954AD9ED6D01}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,8 +2683,8 @@
   </sheetPr>
   <dimension ref="A1:AL56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39:N39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40:N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="14.4"/>
@@ -2818,38 +2765,38 @@
       <c r="C5" s="75"/>
       <c r="D5" s="76"/>
       <c r="E5" s="75"/>
-      <c r="G5" s="83" t="s">
+      <c r="G5" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="84"/>
-      <c r="AJ5" s="85"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="146"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="146"/>
+      <c r="AG5" s="146"/>
+      <c r="AH5" s="146"/>
+      <c r="AI5" s="146"/>
+      <c r="AJ5" s="147"/>
       <c r="AL5" s="27"/>
     </row>
     <row r="6" spans="1:38">
@@ -2858,37 +2805,37 @@
     </row>
     <row r="7" spans="1:38" ht="15" customHeight="1">
       <c r="D7" s="26"/>
-      <c r="G7" s="86" t="s">
+      <c r="G7" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="P7" s="86" t="s">
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="P7" s="143" t="s">
         <v>100</v>
       </c>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="86"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="143"/>
+      <c r="AF7" s="143"/>
+      <c r="AG7" s="143"/>
+      <c r="AH7" s="143"/>
       <c r="AL7" s="27"/>
     </row>
     <row r="8" spans="1:38" ht="15" customHeight="1">
@@ -2899,37 +2846,37 @@
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1">
       <c r="D9" s="26"/>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="P9" s="87" t="s">
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
+      <c r="P9" s="167" t="s">
         <v>101</v>
       </c>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="167"/>
+      <c r="T9" s="167"/>
+      <c r="U9" s="167"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="167"/>
+      <c r="Y9" s="167"/>
+      <c r="Z9" s="167"/>
+      <c r="AA9" s="167"/>
+      <c r="AB9" s="167"/>
+      <c r="AC9" s="167"/>
+      <c r="AD9" s="167"/>
+      <c r="AE9" s="167"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="167"/>
+      <c r="AH9" s="167"/>
       <c r="AL9" s="27"/>
     </row>
     <row r="10" spans="1:38" ht="15" customHeight="1">
@@ -2940,37 +2887,37 @@
     </row>
     <row r="11" spans="1:38" ht="15" customHeight="1">
       <c r="D11" s="26"/>
-      <c r="G11" s="86" t="s">
+      <c r="G11" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="P11" s="88" t="s">
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="P11" s="168" t="s">
         <v>102</v>
       </c>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="88"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="88"/>
-      <c r="U11" s="88"/>
-      <c r="V11" s="88"/>
-      <c r="W11" s="88"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="88"/>
-      <c r="Z11" s="88"/>
-      <c r="AA11" s="88"/>
-      <c r="AB11" s="88"/>
-      <c r="AC11" s="88"/>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="88"/>
-      <c r="AG11" s="88"/>
-      <c r="AH11" s="88"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="168"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="168"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="168"/>
+      <c r="Y11" s="168"/>
+      <c r="Z11" s="168"/>
+      <c r="AA11" s="168"/>
+      <c r="AB11" s="168"/>
+      <c r="AC11" s="168"/>
+      <c r="AD11" s="168"/>
+      <c r="AE11" s="168"/>
+      <c r="AF11" s="168"/>
+      <c r="AG11" s="168"/>
+      <c r="AH11" s="168"/>
       <c r="AL11" s="27"/>
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1">
@@ -2982,35 +2929,35 @@
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1">
       <c r="D13" s="26"/>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="89"/>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="89"/>
-      <c r="AH13" s="89"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="169"/>
+      <c r="T13" s="169"/>
+      <c r="U13" s="169"/>
+      <c r="V13" s="169"/>
+      <c r="W13" s="169"/>
+      <c r="X13" s="169"/>
+      <c r="Y13" s="169"/>
+      <c r="Z13" s="169"/>
+      <c r="AA13" s="169"/>
+      <c r="AB13" s="169"/>
+      <c r="AC13" s="169"/>
+      <c r="AD13" s="169"/>
+      <c r="AE13" s="169"/>
+      <c r="AF13" s="169"/>
+      <c r="AG13" s="169"/>
+      <c r="AH13" s="169"/>
       <c r="AL13" s="27"/>
     </row>
     <row r="14" spans="1:38" ht="15" customHeight="1">
@@ -3021,37 +2968,37 @@
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1">
       <c r="D15" s="26"/>
-      <c r="G15" s="86" t="s">
+      <c r="G15" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="P15" s="90" t="s">
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="P15" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
-      <c r="U15" s="86"/>
-      <c r="V15" s="86"/>
-      <c r="W15" s="86"/>
-      <c r="X15" s="86"/>
-      <c r="Y15" s="86"/>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="86"/>
-      <c r="AB15" s="86"/>
-      <c r="AC15" s="86"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="86"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="143"/>
+      <c r="W15" s="143"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="143"/>
+      <c r="Z15" s="143"/>
+      <c r="AA15" s="143"/>
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="143"/>
+      <c r="AD15" s="143"/>
+      <c r="AE15" s="143"/>
+      <c r="AF15" s="143"/>
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="143"/>
       <c r="AL15" s="27"/>
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1">
@@ -3064,27 +3011,27 @@
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
       <c r="N16" s="28"/>
-      <c r="P16" s="90" t="s">
+      <c r="P16" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
-      <c r="U16" s="86"/>
-      <c r="V16" s="86"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="86"/>
-      <c r="Y16" s="86"/>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="86"/>
-      <c r="AB16" s="86"/>
-      <c r="AC16" s="86"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="86"/>
-      <c r="AF16" s="86"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="86"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="143"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="143"/>
+      <c r="W16" s="143"/>
+      <c r="X16" s="143"/>
+      <c r="Y16" s="143"/>
+      <c r="Z16" s="143"/>
+      <c r="AA16" s="143"/>
+      <c r="AB16" s="143"/>
+      <c r="AC16" s="143"/>
+      <c r="AD16" s="143"/>
+      <c r="AE16" s="143"/>
+      <c r="AF16" s="143"/>
+      <c r="AG16" s="143"/>
+      <c r="AH16" s="143"/>
       <c r="AL16" s="27"/>
     </row>
     <row r="17" spans="2:38" ht="15" customHeight="1">
@@ -3097,27 +3044,27 @@
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
-      <c r="P17" s="90" t="s">
+      <c r="P17" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
-      <c r="U17" s="86"/>
-      <c r="V17" s="86"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="86"/>
-      <c r="Y17" s="86"/>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="86"/>
-      <c r="AB17" s="86"/>
-      <c r="AC17" s="86"/>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="86"/>
-      <c r="AF17" s="86"/>
-      <c r="AG17" s="86"/>
-      <c r="AH17" s="86"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="143"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="143"/>
+      <c r="W17" s="143"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="143"/>
+      <c r="Z17" s="143"/>
+      <c r="AA17" s="143"/>
+      <c r="AB17" s="143"/>
+      <c r="AC17" s="143"/>
+      <c r="AD17" s="143"/>
+      <c r="AE17" s="143"/>
+      <c r="AF17" s="143"/>
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="143"/>
       <c r="AL17" s="27"/>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1">
@@ -3130,27 +3077,27 @@
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
-      <c r="P18" s="90" t="s">
+      <c r="P18" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="86"/>
-      <c r="AC18" s="86"/>
-      <c r="AD18" s="86"/>
-      <c r="AE18" s="86"/>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="143"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="143"/>
+      <c r="W18" s="143"/>
+      <c r="X18" s="143"/>
+      <c r="Y18" s="143"/>
+      <c r="Z18" s="143"/>
+      <c r="AA18" s="143"/>
+      <c r="AB18" s="143"/>
+      <c r="AC18" s="143"/>
+      <c r="AD18" s="143"/>
+      <c r="AE18" s="143"/>
+      <c r="AF18" s="143"/>
+      <c r="AG18" s="143"/>
+      <c r="AH18" s="143"/>
       <c r="AL18" s="27"/>
     </row>
     <row r="19" spans="2:38" ht="15" customHeight="1">
@@ -3161,37 +3108,37 @@
     </row>
     <row r="20" spans="2:38" ht="15" customHeight="1">
       <c r="D20" s="26"/>
-      <c r="G20" s="86" t="s">
+      <c r="G20" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="P20" s="86" t="s">
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="P20" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="86"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="86"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="86"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="143"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="143"/>
+      <c r="W20" s="143"/>
+      <c r="X20" s="143"/>
+      <c r="Y20" s="143"/>
+      <c r="Z20" s="143"/>
+      <c r="AA20" s="143"/>
+      <c r="AB20" s="143"/>
+      <c r="AC20" s="143"/>
+      <c r="AD20" s="143"/>
+      <c r="AE20" s="143"/>
+      <c r="AF20" s="143"/>
+      <c r="AG20" s="143"/>
+      <c r="AH20" s="143"/>
       <c r="AL20" s="27"/>
     </row>
     <row r="21" spans="2:38" ht="15" customHeight="1">
@@ -3200,18 +3147,18 @@
     </row>
     <row r="22" spans="2:38" ht="15" customHeight="1">
       <c r="D22" s="26"/>
-      <c r="G22" s="91" t="s">
+      <c r="G22" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
+      <c r="M22" s="123"/>
+      <c r="N22" s="123"/>
+      <c r="O22" s="123"/>
+      <c r="P22" s="123"/>
       <c r="AL22" s="27"/>
     </row>
     <row r="23" spans="2:38" ht="9.9" customHeight="1" thickBot="1">
@@ -3230,121 +3177,121 @@
     </row>
     <row r="24" spans="2:38" ht="24.9" customHeight="1">
       <c r="D24" s="26"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="98" t="s">
+      <c r="G24" s="164"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="98" t="s">
+      <c r="M24" s="155"/>
+      <c r="N24" s="155"/>
+      <c r="O24" s="155"/>
+      <c r="P24" s="155"/>
+      <c r="Q24" s="155"/>
+      <c r="R24" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="S24" s="99"/>
-      <c r="T24" s="99"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="99"/>
-      <c r="X24" s="98" t="s">
+      <c r="S24" s="155"/>
+      <c r="T24" s="155"/>
+      <c r="U24" s="155"/>
+      <c r="V24" s="155"/>
+      <c r="W24" s="155"/>
+      <c r="X24" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="99"/>
-      <c r="AA24" s="99"/>
-      <c r="AB24" s="99"/>
-      <c r="AC24" s="99" t="s">
+      <c r="Y24" s="155"/>
+      <c r="Z24" s="155"/>
+      <c r="AA24" s="155"/>
+      <c r="AB24" s="155"/>
+      <c r="AC24" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="AD24" s="98" t="s">
+      <c r="AD24" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="99"/>
-      <c r="AG24" s="99"/>
-      <c r="AH24" s="99"/>
-      <c r="AI24" s="100"/>
+      <c r="AE24" s="155"/>
+      <c r="AF24" s="155"/>
+      <c r="AG24" s="155"/>
+      <c r="AH24" s="155"/>
+      <c r="AI24" s="156"/>
       <c r="AL24" s="27"/>
     </row>
     <row r="25" spans="2:38">
       <c r="D25" s="26"/>
-      <c r="G25" s="109" t="s">
+      <c r="G25" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="105"/>
-      <c r="M25" s="105"/>
-      <c r="N25" s="105"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="105"/>
-      <c r="Q25" s="105"/>
-      <c r="R25" s="105"/>
-      <c r="S25" s="105"/>
-      <c r="T25" s="105"/>
-      <c r="U25" s="105"/>
-      <c r="V25" s="105"/>
-      <c r="W25" s="105"/>
-      <c r="X25" s="92" t="s">
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="166"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="161"/>
+      <c r="S25" s="161"/>
+      <c r="T25" s="161"/>
+      <c r="U25" s="161"/>
+      <c r="V25" s="161"/>
+      <c r="W25" s="161"/>
+      <c r="X25" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="94"/>
-      <c r="AD25" s="92" t="s">
+      <c r="Y25" s="149"/>
+      <c r="Z25" s="149"/>
+      <c r="AA25" s="149"/>
+      <c r="AB25" s="149"/>
+      <c r="AC25" s="150"/>
+      <c r="AD25" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="AE25" s="93"/>
-      <c r="AF25" s="93"/>
-      <c r="AG25" s="93"/>
-      <c r="AH25" s="93"/>
-      <c r="AI25" s="102"/>
+      <c r="AE25" s="149"/>
+      <c r="AF25" s="149"/>
+      <c r="AG25" s="149"/>
+      <c r="AH25" s="149"/>
+      <c r="AI25" s="158"/>
       <c r="AL25" s="27"/>
     </row>
     <row r="26" spans="2:38" ht="43.5" customHeight="1" thickBot="1">
       <c r="D26" s="26"/>
-      <c r="G26" s="103" t="s">
+      <c r="G26" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="106" t="s">
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-      <c r="V26" s="96"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="96"/>
-      <c r="Z26" s="96"/>
-      <c r="AA26" s="96"/>
-      <c r="AB26" s="96"/>
-      <c r="AC26" s="97"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="96"/>
-      <c r="AG26" s="96"/>
-      <c r="AH26" s="96"/>
-      <c r="AI26" s="101"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="163"/>
+      <c r="O26" s="163"/>
+      <c r="P26" s="163"/>
+      <c r="Q26" s="163"/>
+      <c r="R26" s="151"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="152"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="152"/>
+      <c r="W26" s="153"/>
+      <c r="X26" s="151"/>
+      <c r="Y26" s="152"/>
+      <c r="Z26" s="152"/>
+      <c r="AA26" s="152"/>
+      <c r="AB26" s="152"/>
+      <c r="AC26" s="153"/>
+      <c r="AD26" s="151"/>
+      <c r="AE26" s="152"/>
+      <c r="AF26" s="152"/>
+      <c r="AG26" s="152"/>
+      <c r="AH26" s="152"/>
+      <c r="AI26" s="157"/>
       <c r="AL26" s="27"/>
     </row>
     <row r="27" spans="2:38">
@@ -3432,38 +3379,38 @@
       <c r="C33" s="39"/>
       <c r="D33" s="26"/>
       <c r="E33" s="28"/>
-      <c r="G33" s="83" t="s">
+      <c r="G33" s="145" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="84"/>
-      <c r="W33" s="84"/>
-      <c r="X33" s="84"/>
-      <c r="Y33" s="84"/>
-      <c r="Z33" s="84"/>
-      <c r="AA33" s="84"/>
-      <c r="AB33" s="84"/>
-      <c r="AC33" s="84"/>
-      <c r="AD33" s="84"/>
-      <c r="AE33" s="84"/>
-      <c r="AF33" s="84"/>
-      <c r="AG33" s="84"/>
-      <c r="AH33" s="84"/>
-      <c r="AI33" s="84"/>
-      <c r="AJ33" s="85"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="146"/>
+      <c r="O33" s="146"/>
+      <c r="P33" s="146"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="146"/>
+      <c r="S33" s="146"/>
+      <c r="T33" s="146"/>
+      <c r="U33" s="146"/>
+      <c r="V33" s="146"/>
+      <c r="W33" s="146"/>
+      <c r="X33" s="146"/>
+      <c r="Y33" s="146"/>
+      <c r="Z33" s="146"/>
+      <c r="AA33" s="146"/>
+      <c r="AB33" s="146"/>
+      <c r="AC33" s="146"/>
+      <c r="AD33" s="146"/>
+      <c r="AE33" s="146"/>
+      <c r="AF33" s="146"/>
+      <c r="AG33" s="146"/>
+      <c r="AH33" s="146"/>
+      <c r="AI33" s="146"/>
+      <c r="AJ33" s="147"/>
       <c r="AL33" s="27"/>
     </row>
     <row r="34" spans="2:38" ht="15" customHeight="1">
@@ -3478,17 +3425,17 @@
       <c r="C35" s="39"/>
       <c r="D35" s="26"/>
       <c r="E35" s="28"/>
-      <c r="G35" s="91" t="s">
+      <c r="G35" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
+      <c r="O35" s="123"/>
       <c r="AL35" s="27"/>
     </row>
     <row r="36" spans="2:38" ht="15" customHeight="1" thickBot="1">
@@ -3503,48 +3450,48 @@
       <c r="C37" s="39"/>
       <c r="D37" s="26"/>
       <c r="E37" s="28"/>
-      <c r="G37" s="111" t="s">
+      <c r="G37" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="113" t="s">
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="114"/>
-      <c r="M37" s="114"/>
-      <c r="N37" s="115"/>
-      <c r="O37" s="119" t="s">
+      <c r="L37" s="127"/>
+      <c r="M37" s="127"/>
+      <c r="N37" s="128"/>
+      <c r="O37" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="P37" s="120"/>
-      <c r="Q37" s="120"/>
-      <c r="R37" s="121"/>
-      <c r="S37" s="113" t="s">
+      <c r="P37" s="133"/>
+      <c r="Q37" s="133"/>
+      <c r="R37" s="134"/>
+      <c r="S37" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="T37" s="114"/>
-      <c r="U37" s="114"/>
-      <c r="V37" s="114"/>
-      <c r="W37" s="115"/>
-      <c r="X37" s="119" t="s">
+      <c r="T37" s="127"/>
+      <c r="U37" s="127"/>
+      <c r="V37" s="127"/>
+      <c r="W37" s="128"/>
+      <c r="X37" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="Y37" s="120"/>
-      <c r="Z37" s="120"/>
-      <c r="AA37" s="120"/>
-      <c r="AB37" s="120"/>
-      <c r="AC37" s="120"/>
-      <c r="AD37" s="120"/>
-      <c r="AE37" s="120"/>
-      <c r="AF37" s="121"/>
-      <c r="AG37" s="113" t="s">
+      <c r="Y37" s="133"/>
+      <c r="Z37" s="133"/>
+      <c r="AA37" s="133"/>
+      <c r="AB37" s="133"/>
+      <c r="AC37" s="133"/>
+      <c r="AD37" s="133"/>
+      <c r="AE37" s="133"/>
+      <c r="AF37" s="134"/>
+      <c r="AG37" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="AH37" s="114"/>
-      <c r="AI37" s="114"/>
-      <c r="AJ37" s="125"/>
+      <c r="AH37" s="127"/>
+      <c r="AI37" s="127"/>
+      <c r="AJ37" s="138"/>
       <c r="AL37" s="27"/>
     </row>
     <row r="38" spans="2:38" ht="15" customHeight="1">
@@ -3552,40 +3499,40 @@
       <c r="C38" s="39"/>
       <c r="D38" s="26"/>
       <c r="E38" s="28"/>
-      <c r="G38" s="127" t="s">
+      <c r="G38" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="128"/>
-      <c r="I38" s="129" t="s">
+      <c r="H38" s="141"/>
+      <c r="I38" s="142" t="s">
         <v>48</v>
       </c>
-      <c r="J38" s="128"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="118"/>
-      <c r="O38" s="122"/>
-      <c r="P38" s="123"/>
-      <c r="Q38" s="123"/>
-      <c r="R38" s="124"/>
-      <c r="S38" s="116"/>
-      <c r="T38" s="117"/>
-      <c r="U38" s="117"/>
-      <c r="V38" s="117"/>
-      <c r="W38" s="118"/>
-      <c r="X38" s="122"/>
-      <c r="Y38" s="123"/>
-      <c r="Z38" s="123"/>
-      <c r="AA38" s="123"/>
-      <c r="AB38" s="123"/>
-      <c r="AC38" s="123"/>
-      <c r="AD38" s="123"/>
-      <c r="AE38" s="123"/>
-      <c r="AF38" s="124"/>
-      <c r="AG38" s="116"/>
-      <c r="AH38" s="117"/>
-      <c r="AI38" s="117"/>
-      <c r="AJ38" s="126"/>
+      <c r="J38" s="141"/>
+      <c r="K38" s="129"/>
+      <c r="L38" s="130"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="131"/>
+      <c r="O38" s="135"/>
+      <c r="P38" s="136"/>
+      <c r="Q38" s="136"/>
+      <c r="R38" s="137"/>
+      <c r="S38" s="129"/>
+      <c r="T38" s="130"/>
+      <c r="U38" s="130"/>
+      <c r="V38" s="130"/>
+      <c r="W38" s="131"/>
+      <c r="X38" s="135"/>
+      <c r="Y38" s="136"/>
+      <c r="Z38" s="136"/>
+      <c r="AA38" s="136"/>
+      <c r="AB38" s="136"/>
+      <c r="AC38" s="136"/>
+      <c r="AD38" s="136"/>
+      <c r="AE38" s="136"/>
+      <c r="AF38" s="137"/>
+      <c r="AG38" s="129"/>
+      <c r="AH38" s="130"/>
+      <c r="AI38" s="130"/>
+      <c r="AJ38" s="139"/>
       <c r="AL38" s="27"/>
     </row>
     <row r="39" spans="2:38" ht="57" customHeight="1">
@@ -3593,78 +3540,80 @@
       <c r="C39" s="39"/>
       <c r="D39" s="26"/>
       <c r="E39" s="28"/>
-      <c r="G39" s="136" t="s">
+      <c r="G39" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="137"/>
-      <c r="I39" s="138" t="s">
+      <c r="H39" s="101"/>
+      <c r="I39" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="J39" s="137"/>
-      <c r="K39" s="139"/>
-      <c r="L39" s="140"/>
-      <c r="M39" s="140"/>
-      <c r="N39" s="141"/>
-      <c r="O39" s="130"/>
-      <c r="P39" s="131"/>
-      <c r="Q39" s="131"/>
-      <c r="R39" s="142"/>
-      <c r="S39" s="130" t="s">
+      <c r="J39" s="101"/>
+      <c r="K39" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="105"/>
+      <c r="S39" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="T39" s="131"/>
-      <c r="U39" s="131"/>
-      <c r="V39" s="131"/>
-      <c r="W39" s="142"/>
-      <c r="X39" s="133"/>
-      <c r="Y39" s="134"/>
-      <c r="Z39" s="134"/>
-      <c r="AA39" s="134"/>
-      <c r="AB39" s="134"/>
-      <c r="AC39" s="134"/>
-      <c r="AD39" s="134"/>
-      <c r="AE39" s="134"/>
-      <c r="AF39" s="135"/>
-      <c r="AG39" s="130"/>
-      <c r="AH39" s="131"/>
-      <c r="AI39" s="131"/>
-      <c r="AJ39" s="132"/>
+      <c r="T39" s="95"/>
+      <c r="U39" s="95"/>
+      <c r="V39" s="95"/>
+      <c r="W39" s="105"/>
+      <c r="X39" s="121"/>
+      <c r="Y39" s="117"/>
+      <c r="Z39" s="117"/>
+      <c r="AA39" s="117"/>
+      <c r="AB39" s="117"/>
+      <c r="AC39" s="117"/>
+      <c r="AD39" s="117"/>
+      <c r="AE39" s="117"/>
+      <c r="AF39" s="118"/>
+      <c r="AG39" s="94"/>
+      <c r="AH39" s="95"/>
+      <c r="AI39" s="95"/>
+      <c r="AJ39" s="96"/>
       <c r="AL39" s="27"/>
     </row>
     <row r="40" spans="2:38" ht="54" customHeight="1">
       <c r="D40" s="26"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="137"/>
-      <c r="K40" s="139"/>
-      <c r="L40" s="140"/>
-      <c r="M40" s="140"/>
-      <c r="N40" s="141"/>
-      <c r="O40" s="130"/>
-      <c r="P40" s="131"/>
-      <c r="Q40" s="131"/>
-      <c r="R40" s="142"/>
-      <c r="S40" s="130"/>
-      <c r="T40" s="131"/>
-      <c r="U40" s="131"/>
-      <c r="V40" s="131"/>
-      <c r="W40" s="142"/>
-      <c r="X40" s="133"/>
-      <c r="Y40" s="134"/>
-      <c r="Z40" s="134"/>
-      <c r="AA40" s="134"/>
-      <c r="AB40" s="134"/>
-      <c r="AC40" s="134"/>
-      <c r="AD40" s="134"/>
-      <c r="AE40" s="134"/>
-      <c r="AF40" s="135"/>
-      <c r="AG40" s="130"/>
-      <c r="AH40" s="131"/>
-      <c r="AI40" s="131"/>
-      <c r="AJ40" s="132"/>
+      <c r="G40" s="122"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="95"/>
+      <c r="U40" s="95"/>
+      <c r="V40" s="95"/>
+      <c r="W40" s="105"/>
+      <c r="X40" s="121"/>
+      <c r="Y40" s="117"/>
+      <c r="Z40" s="117"/>
+      <c r="AA40" s="117"/>
+      <c r="AB40" s="117"/>
+      <c r="AC40" s="117"/>
+      <c r="AD40" s="117"/>
+      <c r="AE40" s="117"/>
+      <c r="AF40" s="118"/>
+      <c r="AG40" s="94"/>
+      <c r="AH40" s="95"/>
+      <c r="AI40" s="95"/>
+      <c r="AJ40" s="96"/>
       <c r="AK40" s="41"/>
       <c r="AL40" s="42"/>
     </row>
@@ -3672,36 +3621,36 @@
       <c r="D41" s="26"/>
       <c r="E41" s="40"/>
       <c r="F41" s="73"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="137"/>
-      <c r="K41" s="139"/>
-      <c r="L41" s="140"/>
-      <c r="M41" s="140"/>
-      <c r="N41" s="141"/>
-      <c r="O41" s="130"/>
-      <c r="P41" s="131"/>
-      <c r="Q41" s="131"/>
-      <c r="R41" s="142"/>
-      <c r="S41" s="130"/>
-      <c r="T41" s="131"/>
-      <c r="U41" s="131"/>
-      <c r="V41" s="131"/>
-      <c r="W41" s="142"/>
-      <c r="X41" s="133"/>
-      <c r="Y41" s="134"/>
-      <c r="Z41" s="134"/>
-      <c r="AA41" s="134"/>
-      <c r="AB41" s="134"/>
-      <c r="AC41" s="134"/>
-      <c r="AD41" s="134"/>
-      <c r="AE41" s="134"/>
-      <c r="AF41" s="135"/>
-      <c r="AG41" s="130"/>
-      <c r="AH41" s="131"/>
-      <c r="AI41" s="131"/>
-      <c r="AJ41" s="132"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="103"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="105"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="95"/>
+      <c r="U41" s="95"/>
+      <c r="V41" s="95"/>
+      <c r="W41" s="105"/>
+      <c r="X41" s="121"/>
+      <c r="Y41" s="117"/>
+      <c r="Z41" s="117"/>
+      <c r="AA41" s="117"/>
+      <c r="AB41" s="117"/>
+      <c r="AC41" s="117"/>
+      <c r="AD41" s="117"/>
+      <c r="AE41" s="117"/>
+      <c r="AF41" s="118"/>
+      <c r="AG41" s="94"/>
+      <c r="AH41" s="95"/>
+      <c r="AI41" s="95"/>
+      <c r="AJ41" s="96"/>
       <c r="AK41" s="41"/>
       <c r="AL41" s="42"/>
     </row>
@@ -3709,36 +3658,36 @@
       <c r="D42" s="26"/>
       <c r="E42" s="40"/>
       <c r="F42" s="73"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="139"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="140"/>
-      <c r="N42" s="141"/>
-      <c r="O42" s="130"/>
-      <c r="P42" s="131"/>
-      <c r="Q42" s="131"/>
-      <c r="R42" s="142"/>
-      <c r="S42" s="130"/>
-      <c r="T42" s="131"/>
-      <c r="U42" s="131"/>
-      <c r="V42" s="131"/>
-      <c r="W42" s="142"/>
-      <c r="X42" s="143"/>
-      <c r="Y42" s="134"/>
-      <c r="Z42" s="134"/>
-      <c r="AA42" s="134"/>
-      <c r="AB42" s="134"/>
-      <c r="AC42" s="134"/>
-      <c r="AD42" s="134"/>
-      <c r="AE42" s="134"/>
-      <c r="AF42" s="135"/>
-      <c r="AG42" s="130"/>
-      <c r="AH42" s="131"/>
-      <c r="AI42" s="131"/>
-      <c r="AJ42" s="132"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="103"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="105"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="105"/>
+      <c r="X42" s="116"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
+      <c r="AA42" s="117"/>
+      <c r="AB42" s="117"/>
+      <c r="AC42" s="117"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="118"/>
+      <c r="AG42" s="94"/>
+      <c r="AH42" s="95"/>
+      <c r="AI42" s="95"/>
+      <c r="AJ42" s="96"/>
       <c r="AK42" s="41"/>
       <c r="AL42" s="42"/>
     </row>
@@ -3746,36 +3695,36 @@
       <c r="D43" s="26"/>
       <c r="E43" s="40"/>
       <c r="F43" s="73"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="139"/>
-      <c r="L43" s="140"/>
-      <c r="M43" s="140"/>
-      <c r="N43" s="141"/>
-      <c r="O43" s="130"/>
-      <c r="P43" s="131"/>
-      <c r="Q43" s="131"/>
-      <c r="R43" s="142"/>
-      <c r="S43" s="130"/>
-      <c r="T43" s="131"/>
-      <c r="U43" s="131"/>
-      <c r="V43" s="131"/>
-      <c r="W43" s="142"/>
-      <c r="X43" s="143"/>
-      <c r="Y43" s="134"/>
-      <c r="Z43" s="134"/>
-      <c r="AA43" s="134"/>
-      <c r="AB43" s="134"/>
-      <c r="AC43" s="134"/>
-      <c r="AD43" s="134"/>
-      <c r="AE43" s="134"/>
-      <c r="AF43" s="135"/>
-      <c r="AG43" s="130"/>
-      <c r="AH43" s="131"/>
-      <c r="AI43" s="131"/>
-      <c r="AJ43" s="132"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="103"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="94"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="94"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="105"/>
+      <c r="X43" s="116"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="117"/>
+      <c r="AB43" s="117"/>
+      <c r="AC43" s="117"/>
+      <c r="AD43" s="117"/>
+      <c r="AE43" s="117"/>
+      <c r="AF43" s="118"/>
+      <c r="AG43" s="94"/>
+      <c r="AH43" s="95"/>
+      <c r="AI43" s="95"/>
+      <c r="AJ43" s="96"/>
       <c r="AK43" s="41"/>
       <c r="AL43" s="42"/>
     </row>
@@ -3783,36 +3732,36 @@
       <c r="D44" s="26"/>
       <c r="E44" s="40"/>
       <c r="F44" s="73"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="138"/>
-      <c r="J44" s="137"/>
-      <c r="K44" s="139"/>
-      <c r="L44" s="140"/>
-      <c r="M44" s="140"/>
-      <c r="N44" s="141"/>
-      <c r="O44" s="130"/>
-      <c r="P44" s="131"/>
-      <c r="Q44" s="131"/>
-      <c r="R44" s="142"/>
-      <c r="S44" s="130"/>
-      <c r="T44" s="131"/>
-      <c r="U44" s="131"/>
-      <c r="V44" s="131"/>
-      <c r="W44" s="142"/>
-      <c r="X44" s="143"/>
-      <c r="Y44" s="134"/>
-      <c r="Z44" s="134"/>
-      <c r="AA44" s="134"/>
-      <c r="AB44" s="134"/>
-      <c r="AC44" s="134"/>
-      <c r="AD44" s="134"/>
-      <c r="AE44" s="134"/>
-      <c r="AF44" s="135"/>
-      <c r="AG44" s="130"/>
-      <c r="AH44" s="131"/>
-      <c r="AI44" s="131"/>
-      <c r="AJ44" s="132"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="101"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="101"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="105"/>
+      <c r="S44" s="94"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="105"/>
+      <c r="X44" s="116"/>
+      <c r="Y44" s="117"/>
+      <c r="Z44" s="117"/>
+      <c r="AA44" s="117"/>
+      <c r="AB44" s="117"/>
+      <c r="AC44" s="117"/>
+      <c r="AD44" s="117"/>
+      <c r="AE44" s="117"/>
+      <c r="AF44" s="118"/>
+      <c r="AG44" s="94"/>
+      <c r="AH44" s="95"/>
+      <c r="AI44" s="95"/>
+      <c r="AJ44" s="96"/>
       <c r="AK44" s="41"/>
       <c r="AL44" s="42"/>
     </row>
@@ -3820,36 +3769,36 @@
       <c r="D45" s="26"/>
       <c r="E45" s="40"/>
       <c r="F45" s="73"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="138"/>
-      <c r="J45" s="137"/>
-      <c r="K45" s="139"/>
-      <c r="L45" s="140"/>
-      <c r="M45" s="140"/>
-      <c r="N45" s="141"/>
-      <c r="O45" s="130"/>
-      <c r="P45" s="131"/>
-      <c r="Q45" s="131"/>
-      <c r="R45" s="142"/>
-      <c r="S45" s="130"/>
-      <c r="T45" s="131"/>
-      <c r="U45" s="131"/>
-      <c r="V45" s="131"/>
-      <c r="W45" s="142"/>
-      <c r="X45" s="143"/>
-      <c r="Y45" s="134"/>
-      <c r="Z45" s="134"/>
-      <c r="AA45" s="134"/>
-      <c r="AB45" s="134"/>
-      <c r="AC45" s="134"/>
-      <c r="AD45" s="134"/>
-      <c r="AE45" s="134"/>
-      <c r="AF45" s="135"/>
-      <c r="AG45" s="130"/>
-      <c r="AH45" s="131"/>
-      <c r="AI45" s="131"/>
-      <c r="AJ45" s="132"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="101"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="103"/>
+      <c r="M45" s="103"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="94"/>
+      <c r="P45" s="95"/>
+      <c r="Q45" s="95"/>
+      <c r="R45" s="105"/>
+      <c r="S45" s="94"/>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="95"/>
+      <c r="W45" s="105"/>
+      <c r="X45" s="116"/>
+      <c r="Y45" s="117"/>
+      <c r="Z45" s="117"/>
+      <c r="AA45" s="117"/>
+      <c r="AB45" s="117"/>
+      <c r="AC45" s="117"/>
+      <c r="AD45" s="117"/>
+      <c r="AE45" s="117"/>
+      <c r="AF45" s="118"/>
+      <c r="AG45" s="94"/>
+      <c r="AH45" s="95"/>
+      <c r="AI45" s="95"/>
+      <c r="AJ45" s="96"/>
       <c r="AK45" s="41"/>
       <c r="AL45" s="42"/>
     </row>
@@ -3857,36 +3806,36 @@
       <c r="D46" s="26"/>
       <c r="E46" s="40"/>
       <c r="F46" s="73"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="137"/>
-      <c r="K46" s="139"/>
-      <c r="L46" s="140"/>
-      <c r="M46" s="140"/>
-      <c r="N46" s="141"/>
-      <c r="O46" s="130"/>
-      <c r="P46" s="131"/>
-      <c r="Q46" s="131"/>
-      <c r="R46" s="142"/>
-      <c r="S46" s="130"/>
-      <c r="T46" s="131"/>
-      <c r="U46" s="131"/>
-      <c r="V46" s="131"/>
-      <c r="W46" s="142"/>
-      <c r="X46" s="143"/>
-      <c r="Y46" s="144"/>
-      <c r="Z46" s="144"/>
-      <c r="AA46" s="144"/>
-      <c r="AB46" s="144"/>
-      <c r="AC46" s="144"/>
-      <c r="AD46" s="144"/>
-      <c r="AE46" s="144"/>
-      <c r="AF46" s="145"/>
-      <c r="AG46" s="130"/>
-      <c r="AH46" s="131"/>
-      <c r="AI46" s="131"/>
-      <c r="AJ46" s="132"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="101"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="101"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="103"/>
+      <c r="M46" s="103"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="94"/>
+      <c r="P46" s="95"/>
+      <c r="Q46" s="95"/>
+      <c r="R46" s="105"/>
+      <c r="S46" s="94"/>
+      <c r="T46" s="95"/>
+      <c r="U46" s="95"/>
+      <c r="V46" s="95"/>
+      <c r="W46" s="105"/>
+      <c r="X46" s="116"/>
+      <c r="Y46" s="119"/>
+      <c r="Z46" s="119"/>
+      <c r="AA46" s="119"/>
+      <c r="AB46" s="119"/>
+      <c r="AC46" s="119"/>
+      <c r="AD46" s="119"/>
+      <c r="AE46" s="119"/>
+      <c r="AF46" s="120"/>
+      <c r="AG46" s="94"/>
+      <c r="AH46" s="95"/>
+      <c r="AI46" s="95"/>
+      <c r="AJ46" s="96"/>
       <c r="AK46" s="41"/>
       <c r="AL46" s="42"/>
     </row>
@@ -3894,36 +3843,36 @@
       <c r="D47" s="26"/>
       <c r="E47" s="40"/>
       <c r="F47" s="73"/>
-      <c r="G47" s="165"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="148"/>
-      <c r="K47" s="149"/>
-      <c r="L47" s="150"/>
-      <c r="M47" s="150"/>
-      <c r="N47" s="151"/>
-      <c r="O47" s="152"/>
-      <c r="P47" s="153"/>
-      <c r="Q47" s="153"/>
-      <c r="R47" s="154"/>
-      <c r="S47" s="152"/>
-      <c r="T47" s="153"/>
-      <c r="U47" s="153"/>
-      <c r="V47" s="153"/>
-      <c r="W47" s="154"/>
-      <c r="X47" s="158"/>
-      <c r="Y47" s="159"/>
-      <c r="Z47" s="159"/>
-      <c r="AA47" s="159"/>
-      <c r="AB47" s="159"/>
-      <c r="AC47" s="159"/>
-      <c r="AD47" s="159"/>
-      <c r="AE47" s="159"/>
-      <c r="AF47" s="160"/>
-      <c r="AG47" s="152"/>
-      <c r="AH47" s="153"/>
-      <c r="AI47" s="153"/>
-      <c r="AJ47" s="161"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="107"/>
+      <c r="K47" s="109"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="88"/>
+      <c r="R47" s="89"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="88"/>
+      <c r="U47" s="88"/>
+      <c r="V47" s="88"/>
+      <c r="W47" s="89"/>
+      <c r="X47" s="90"/>
+      <c r="Y47" s="91"/>
+      <c r="Z47" s="91"/>
+      <c r="AA47" s="91"/>
+      <c r="AB47" s="91"/>
+      <c r="AC47" s="91"/>
+      <c r="AD47" s="91"/>
+      <c r="AE47" s="91"/>
+      <c r="AF47" s="92"/>
+      <c r="AG47" s="87"/>
+      <c r="AH47" s="88"/>
+      <c r="AI47" s="88"/>
+      <c r="AJ47" s="93"/>
       <c r="AK47" s="41"/>
       <c r="AL47" s="42"/>
     </row>
@@ -3931,36 +3880,36 @@
       <c r="D48" s="26"/>
       <c r="E48" s="40"/>
       <c r="F48" s="40"/>
-      <c r="G48" s="147"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="147"/>
-      <c r="J48" s="148"/>
-      <c r="K48" s="149"/>
-      <c r="L48" s="150"/>
-      <c r="M48" s="150"/>
-      <c r="N48" s="151"/>
-      <c r="O48" s="152"/>
-      <c r="P48" s="153"/>
-      <c r="Q48" s="153"/>
-      <c r="R48" s="154"/>
-      <c r="S48" s="152"/>
-      <c r="T48" s="153"/>
-      <c r="U48" s="153"/>
-      <c r="V48" s="153"/>
-      <c r="W48" s="154"/>
-      <c r="X48" s="158"/>
-      <c r="Y48" s="159"/>
-      <c r="Z48" s="159"/>
-      <c r="AA48" s="159"/>
-      <c r="AB48" s="159"/>
-      <c r="AC48" s="159"/>
-      <c r="AD48" s="159"/>
-      <c r="AE48" s="159"/>
-      <c r="AF48" s="160"/>
-      <c r="AG48" s="152"/>
-      <c r="AH48" s="153"/>
-      <c r="AI48" s="153"/>
-      <c r="AJ48" s="161"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="108"/>
+      <c r="J48" s="107"/>
+      <c r="K48" s="109"/>
+      <c r="L48" s="110"/>
+      <c r="M48" s="110"/>
+      <c r="N48" s="111"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="88"/>
+      <c r="Q48" s="88"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="88"/>
+      <c r="U48" s="88"/>
+      <c r="V48" s="88"/>
+      <c r="W48" s="89"/>
+      <c r="X48" s="90"/>
+      <c r="Y48" s="91"/>
+      <c r="Z48" s="91"/>
+      <c r="AA48" s="91"/>
+      <c r="AB48" s="91"/>
+      <c r="AC48" s="91"/>
+      <c r="AD48" s="91"/>
+      <c r="AE48" s="91"/>
+      <c r="AF48" s="92"/>
+      <c r="AG48" s="87"/>
+      <c r="AH48" s="88"/>
+      <c r="AI48" s="88"/>
+      <c r="AJ48" s="93"/>
       <c r="AK48" s="41"/>
       <c r="AL48" s="42"/>
     </row>
@@ -3968,36 +3917,36 @@
       <c r="D49" s="26"/>
       <c r="E49" s="40"/>
       <c r="F49" s="40"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="148"/>
-      <c r="I49" s="147"/>
-      <c r="J49" s="148"/>
-      <c r="K49" s="149"/>
-      <c r="L49" s="150"/>
-      <c r="M49" s="150"/>
-      <c r="N49" s="151"/>
-      <c r="O49" s="152"/>
-      <c r="P49" s="153"/>
-      <c r="Q49" s="153"/>
-      <c r="R49" s="154"/>
-      <c r="S49" s="152"/>
-      <c r="T49" s="153"/>
-      <c r="U49" s="153"/>
-      <c r="V49" s="153"/>
-      <c r="W49" s="154"/>
-      <c r="X49" s="158"/>
-      <c r="Y49" s="159"/>
-      <c r="Z49" s="159"/>
-      <c r="AA49" s="159"/>
-      <c r="AB49" s="159"/>
-      <c r="AC49" s="159"/>
-      <c r="AD49" s="159"/>
-      <c r="AE49" s="159"/>
-      <c r="AF49" s="160"/>
-      <c r="AG49" s="152"/>
-      <c r="AH49" s="153"/>
-      <c r="AI49" s="153"/>
-      <c r="AJ49" s="161"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="108"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="109"/>
+      <c r="L49" s="110"/>
+      <c r="M49" s="110"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="87"/>
+      <c r="P49" s="88"/>
+      <c r="Q49" s="88"/>
+      <c r="R49" s="89"/>
+      <c r="S49" s="87"/>
+      <c r="T49" s="88"/>
+      <c r="U49" s="88"/>
+      <c r="V49" s="88"/>
+      <c r="W49" s="89"/>
+      <c r="X49" s="90"/>
+      <c r="Y49" s="91"/>
+      <c r="Z49" s="91"/>
+      <c r="AA49" s="91"/>
+      <c r="AB49" s="91"/>
+      <c r="AC49" s="91"/>
+      <c r="AD49" s="91"/>
+      <c r="AE49" s="91"/>
+      <c r="AF49" s="92"/>
+      <c r="AG49" s="87"/>
+      <c r="AH49" s="88"/>
+      <c r="AI49" s="88"/>
+      <c r="AJ49" s="93"/>
       <c r="AK49" s="41"/>
       <c r="AL49" s="42"/>
     </row>
@@ -4012,38 +3961,38 @@
       <c r="D51" s="26"/>
       <c r="E51" s="43"/>
       <c r="F51" s="43"/>
-      <c r="G51" s="162" t="s">
+      <c r="G51" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="H51" s="163"/>
-      <c r="I51" s="163"/>
-      <c r="J51" s="163"/>
-      <c r="K51" s="163"/>
-      <c r="L51" s="163"/>
-      <c r="M51" s="163"/>
-      <c r="N51" s="163"/>
-      <c r="O51" s="163"/>
-      <c r="P51" s="163"/>
-      <c r="Q51" s="163"/>
-      <c r="R51" s="163"/>
-      <c r="S51" s="163"/>
-      <c r="T51" s="163"/>
-      <c r="U51" s="163"/>
-      <c r="V51" s="163"/>
-      <c r="W51" s="163"/>
-      <c r="X51" s="163"/>
-      <c r="Y51" s="163"/>
-      <c r="Z51" s="163"/>
-      <c r="AA51" s="163"/>
-      <c r="AB51" s="163"/>
-      <c r="AC51" s="163"/>
-      <c r="AD51" s="163"/>
-      <c r="AE51" s="163"/>
-      <c r="AF51" s="163"/>
-      <c r="AG51" s="163"/>
-      <c r="AH51" s="163"/>
-      <c r="AI51" s="163"/>
-      <c r="AJ51" s="164"/>
+      <c r="H51" s="98"/>
+      <c r="I51" s="98"/>
+      <c r="J51" s="98"/>
+      <c r="K51" s="98"/>
+      <c r="L51" s="98"/>
+      <c r="M51" s="98"/>
+      <c r="N51" s="98"/>
+      <c r="O51" s="98"/>
+      <c r="P51" s="98"/>
+      <c r="Q51" s="98"/>
+      <c r="R51" s="98"/>
+      <c r="S51" s="98"/>
+      <c r="T51" s="98"/>
+      <c r="U51" s="98"/>
+      <c r="V51" s="98"/>
+      <c r="W51" s="98"/>
+      <c r="X51" s="98"/>
+      <c r="Y51" s="98"/>
+      <c r="Z51" s="98"/>
+      <c r="AA51" s="98"/>
+      <c r="AB51" s="98"/>
+      <c r="AC51" s="98"/>
+      <c r="AD51" s="98"/>
+      <c r="AE51" s="98"/>
+      <c r="AF51" s="98"/>
+      <c r="AG51" s="98"/>
+      <c r="AH51" s="98"/>
+      <c r="AI51" s="98"/>
+      <c r="AJ51" s="99"/>
       <c r="AK51" s="43"/>
       <c r="AL51" s="44"/>
     </row>
@@ -4051,38 +4000,38 @@
       <c r="D52" s="26"/>
       <c r="E52" s="45"/>
       <c r="F52" s="45"/>
-      <c r="G52" s="155" t="s">
+      <c r="G52" s="112" t="s">
         <v>96</v>
       </c>
-      <c r="H52" s="156"/>
-      <c r="I52" s="156"/>
-      <c r="J52" s="156"/>
-      <c r="K52" s="156"/>
-      <c r="L52" s="156"/>
-      <c r="M52" s="156"/>
-      <c r="N52" s="156"/>
-      <c r="O52" s="156"/>
-      <c r="P52" s="156"/>
-      <c r="Q52" s="156"/>
-      <c r="R52" s="156"/>
-      <c r="S52" s="156"/>
-      <c r="T52" s="156"/>
-      <c r="U52" s="156"/>
-      <c r="V52" s="156"/>
-      <c r="W52" s="156"/>
-      <c r="X52" s="156"/>
-      <c r="Y52" s="156"/>
-      <c r="Z52" s="156"/>
-      <c r="AA52" s="156"/>
-      <c r="AB52" s="156"/>
-      <c r="AC52" s="156"/>
-      <c r="AD52" s="156"/>
-      <c r="AE52" s="156"/>
-      <c r="AF52" s="156"/>
-      <c r="AG52" s="156"/>
-      <c r="AH52" s="156"/>
-      <c r="AI52" s="156"/>
-      <c r="AJ52" s="157"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="113"/>
+      <c r="L52" s="113"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="113"/>
+      <c r="O52" s="113"/>
+      <c r="P52" s="113"/>
+      <c r="Q52" s="113"/>
+      <c r="R52" s="113"/>
+      <c r="S52" s="113"/>
+      <c r="T52" s="113"/>
+      <c r="U52" s="113"/>
+      <c r="V52" s="113"/>
+      <c r="W52" s="113"/>
+      <c r="X52" s="113"/>
+      <c r="Y52" s="113"/>
+      <c r="Z52" s="113"/>
+      <c r="AA52" s="113"/>
+      <c r="AB52" s="113"/>
+      <c r="AC52" s="113"/>
+      <c r="AD52" s="113"/>
+      <c r="AE52" s="113"/>
+      <c r="AF52" s="113"/>
+      <c r="AG52" s="113"/>
+      <c r="AH52" s="113"/>
+      <c r="AI52" s="113"/>
+      <c r="AJ52" s="114"/>
       <c r="AK52" s="46"/>
       <c r="AL52" s="47"/>
     </row>
@@ -4140,6 +4089,103 @@
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="G5:AJ5"/>
+    <mergeCell ref="G7:N7"/>
+    <mergeCell ref="P7:AH7"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="P9:AH9"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="P11:AH11"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="P13:AH13"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="P15:AH15"/>
+    <mergeCell ref="P16:AH16"/>
+    <mergeCell ref="P18:AH18"/>
+    <mergeCell ref="G20:N20"/>
+    <mergeCell ref="P20:AH20"/>
+    <mergeCell ref="G22:P22"/>
+    <mergeCell ref="P17:AH17"/>
+    <mergeCell ref="G33:AJ33"/>
+    <mergeCell ref="X25:AC25"/>
+    <mergeCell ref="X26:AC26"/>
+    <mergeCell ref="X24:AC24"/>
+    <mergeCell ref="AD24:AI24"/>
+    <mergeCell ref="AD26:AI26"/>
+    <mergeCell ref="AD25:AI25"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="G35:O35"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="K37:N38"/>
+    <mergeCell ref="O37:R38"/>
+    <mergeCell ref="S37:W38"/>
+    <mergeCell ref="X37:AF38"/>
+    <mergeCell ref="AG37:AJ38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="AG39:AJ39"/>
+    <mergeCell ref="X40:AF40"/>
+    <mergeCell ref="AG40:AJ40"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="O39:R39"/>
+    <mergeCell ref="S39:W39"/>
+    <mergeCell ref="X39:AF39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="S40:W40"/>
+    <mergeCell ref="X46:AF46"/>
+    <mergeCell ref="AG46:AJ46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="AG41:AJ41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="S42:W42"/>
+    <mergeCell ref="X42:AF42"/>
+    <mergeCell ref="AG42:AJ42"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="S41:W41"/>
+    <mergeCell ref="X41:AF41"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="O49:R49"/>
+    <mergeCell ref="G52:AJ52"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="O43:R43"/>
+    <mergeCell ref="S43:W43"/>
+    <mergeCell ref="X43:AF43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="O44:R44"/>
+    <mergeCell ref="S44:W44"/>
+    <mergeCell ref="X44:AF44"/>
+    <mergeCell ref="AG44:AJ44"/>
+    <mergeCell ref="X45:AF45"/>
+    <mergeCell ref="AG45:AJ45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="S45:W45"/>
     <mergeCell ref="S49:W49"/>
     <mergeCell ref="X49:AF49"/>
     <mergeCell ref="AG49:AJ49"/>
@@ -4164,103 +4210,6 @@
     <mergeCell ref="X48:AF48"/>
     <mergeCell ref="AG48:AJ48"/>
     <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="O49:R49"/>
-    <mergeCell ref="G52:AJ52"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="O43:R43"/>
-    <mergeCell ref="S43:W43"/>
-    <mergeCell ref="X43:AF43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="O44:R44"/>
-    <mergeCell ref="S44:W44"/>
-    <mergeCell ref="X44:AF44"/>
-    <mergeCell ref="AG44:AJ44"/>
-    <mergeCell ref="X45:AF45"/>
-    <mergeCell ref="AG45:AJ45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="O45:R45"/>
-    <mergeCell ref="S45:W45"/>
-    <mergeCell ref="X46:AF46"/>
-    <mergeCell ref="AG46:AJ46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="S42:W42"/>
-    <mergeCell ref="X42:AF42"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="S41:W41"/>
-    <mergeCell ref="X41:AF41"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="X40:AF40"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="O39:R39"/>
-    <mergeCell ref="S39:W39"/>
-    <mergeCell ref="X39:AF39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="S40:W40"/>
-    <mergeCell ref="G35:O35"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="K37:N38"/>
-    <mergeCell ref="O37:R38"/>
-    <mergeCell ref="S37:W38"/>
-    <mergeCell ref="X37:AF38"/>
-    <mergeCell ref="AG37:AJ38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="P15:AH15"/>
-    <mergeCell ref="P16:AH16"/>
-    <mergeCell ref="P18:AH18"/>
-    <mergeCell ref="G20:N20"/>
-    <mergeCell ref="P20:AH20"/>
-    <mergeCell ref="G22:P22"/>
-    <mergeCell ref="P17:AH17"/>
-    <mergeCell ref="G33:AJ33"/>
-    <mergeCell ref="X25:AC25"/>
-    <mergeCell ref="X26:AC26"/>
-    <mergeCell ref="X24:AC24"/>
-    <mergeCell ref="AD24:AI24"/>
-    <mergeCell ref="AD26:AI26"/>
-    <mergeCell ref="AD25:AI25"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="G5:AJ5"/>
-    <mergeCell ref="G7:N7"/>
-    <mergeCell ref="P7:AH7"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="P9:AH9"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="P11:AH11"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="P13:AH13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G52" r:id="rId1" display="http://172.29.55.228:81/QA"/>
@@ -4287,8 +4236,8 @@
   </sheetPr>
   <dimension ref="A1:Q672"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E15"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4309,20 +4258,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="36.6">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="Q1" t="s">
@@ -4330,10 +4279,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.6">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="174"/>
+      <c r="B2" s="190"/>
       <c r="C2" s="12" t="s">
         <v>97</v>
       </c>
@@ -4343,16 +4292,16 @@
       <c r="E2" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="174" t="s">
+      <c r="G2" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="174"/>
-      <c r="I2" s="171">
+      <c r="H2" s="190"/>
+      <c r="I2" s="176">
         <v>45996</v>
       </c>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
       <c r="M2" s="3"/>
       <c r="N2" s="1"/>
       <c r="Q2" t="s">
@@ -4360,10 +4309,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.6">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="190" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="174"/>
+      <c r="B3" s="190"/>
       <c r="C3" s="13"/>
       <c r="D3" s="52" t="s">
         <v>19</v>
@@ -4371,16 +4320,16 @@
       <c r="E3" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="174" t="s">
+      <c r="G3" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="174"/>
-      <c r="I3" s="172" t="s">
+      <c r="H3" s="190"/>
+      <c r="I3" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="196"/>
       <c r="M3" s="1"/>
       <c r="N3" s="3"/>
       <c r="Q3" t="s">
@@ -4388,23 +4337,23 @@
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.6">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="190" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="174"/>
+      <c r="B4" s="190"/>
       <c r="C4" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="183"/>
-      <c r="E4" s="183"/>
-      <c r="G4" s="174" t="s">
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
+      <c r="G4" s="190" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="184"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="197"/>
       <c r="M4" s="1"/>
       <c r="N4" s="3"/>
       <c r="Q4" t="s">
@@ -4412,23 +4361,23 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.6">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="175"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="175"/>
-      <c r="E5" s="175"/>
-      <c r="G5" s="174" t="s">
+      <c r="B5" s="198"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="G5" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="174"/>
-      <c r="I5" s="172" t="s">
+      <c r="H5" s="190"/>
+      <c r="I5" s="196" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="172"/>
-      <c r="K5" s="172"/>
-      <c r="L5" s="172"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="196"/>
       <c r="M5" s="1"/>
       <c r="N5" s="3"/>
       <c r="Q5" t="s">
@@ -4436,21 +4385,21 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.6">
-      <c r="A6" s="168"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
+      <c r="A6" s="194"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="169" t="s">
+      <c r="H6" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170" t="s">
+      <c r="I6" s="195"/>
+      <c r="J6" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="170"/>
+      <c r="K6" s="195"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="Q6" t="s">
@@ -4467,10 +4416,10 @@
       <c r="G7" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="173"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="Q7" t="s">
@@ -4501,7 +4450,7 @@
       <c r="A9" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="199" t="s">
+      <c r="B9" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="54" t="s">
@@ -4510,7 +4459,7 @@
       <c r="D9" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="199" t="s">
+      <c r="E9" s="84" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="54" t="s">
@@ -4548,16 +4497,16 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A10" s="198" t="s">
+      <c r="A10" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="200" t="s">
-        <v>124</v>
+      <c r="B10" s="85" t="s">
+        <v>120</v>
       </c>
       <c r="C10" s="81"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="201" t="s">
-        <v>123</v>
+      <c r="D10" s="83"/>
+      <c r="E10" s="86" t="s">
+        <v>119</v>
       </c>
       <c r="F10" s="81" t="s">
         <v>114</v>
@@ -4582,16 +4531,16 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="15">
-      <c r="A11" s="198" t="s">
+      <c r="A11" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="B11" s="200" t="s">
-        <v>127</v>
+      <c r="B11" s="85" t="s">
+        <v>122</v>
       </c>
       <c r="C11" s="81"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="201" t="s">
-        <v>126</v>
+      <c r="D11" s="83"/>
+      <c r="E11" s="86" t="s">
+        <v>121</v>
       </c>
       <c r="F11" s="81" t="s">
         <v>114</v>
@@ -4616,16 +4565,16 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="15">
-      <c r="A12" s="198" t="s">
+      <c r="A12" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="200" t="s">
-        <v>129</v>
+      <c r="B12" s="85" t="s">
+        <v>124</v>
       </c>
       <c r="C12" s="81"/>
-      <c r="D12" s="198"/>
-      <c r="E12" s="201" t="s">
-        <v>128</v>
+      <c r="D12" s="83"/>
+      <c r="E12" s="86" t="s">
+        <v>123</v>
       </c>
       <c r="F12" s="81" t="s">
         <v>114</v>
@@ -4650,16 +4599,16 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="15">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="200" t="s">
-        <v>131</v>
+      <c r="B13" s="85" t="s">
+        <v>126</v>
       </c>
       <c r="C13" s="81"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="201" t="s">
-        <v>130</v>
+      <c r="D13" s="83"/>
+      <c r="E13" s="86" t="s">
+        <v>125</v>
       </c>
       <c r="F13" s="81" t="s">
         <v>114</v>
@@ -4684,16 +4633,16 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="15">
-      <c r="A14" s="198" t="s">
+      <c r="A14" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="200" t="s">
-        <v>133</v>
+      <c r="B14" s="85" t="s">
+        <v>128</v>
       </c>
       <c r="C14" s="81"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="201" t="s">
-        <v>132</v>
+      <c r="D14" s="83"/>
+      <c r="E14" s="86" t="s">
+        <v>127</v>
       </c>
       <c r="F14" s="81" t="s">
         <v>114</v>
@@ -4721,7 +4670,7 @@
       <c r="A15" s="79"/>
       <c r="B15" s="82"/>
       <c r="C15" s="79"/>
-      <c r="D15" s="198"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="79"/>
       <c r="F15" s="81"/>
       <c r="G15" s="79"/>
@@ -4842,13 +4791,13 @@
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="56"/>
-      <c r="B22" s="176" t="s">
+      <c r="B22" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="177"/>
-      <c r="D22" s="177"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="178"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="185"/>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
       <c r="I22" s="57"/>
@@ -4859,11 +4808,11 @@
     </row>
     <row r="23" spans="1:15" ht="10.5" customHeight="1">
       <c r="A23" s="56"/>
-      <c r="B23" s="179"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="181"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="188"/>
       <c r="G23" s="57"/>
       <c r="H23" s="57"/>
       <c r="I23" s="57"/>
@@ -4877,10 +4826,10 @@
       <c r="B24" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="182" t="s">
+      <c r="C24" s="189" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="182"/>
+      <c r="D24" s="189"/>
       <c r="E24" s="65" t="s">
         <v>56</v>
       </c>
@@ -4900,10 +4849,10 @@
       <c r="B25" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="185" t="s">
+      <c r="C25" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="185"/>
+      <c r="D25" s="182"/>
       <c r="E25" s="69" t="s">
         <v>72</v>
       </c>
@@ -4924,10 +4873,10 @@
       <c r="B26" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="186" t="s">
+      <c r="C26" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="186"/>
+      <c r="D26" s="177"/>
       <c r="E26" s="67" t="s">
         <v>72</v>
       </c>
@@ -4948,10 +4897,10 @@
       <c r="B27" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="185" t="s">
+      <c r="C27" s="182" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="185"/>
+      <c r="D27" s="182"/>
       <c r="E27" s="66" t="s">
         <v>72</v>
       </c>
@@ -4972,10 +4921,10 @@
       <c r="B28" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="186" t="s">
+      <c r="C28" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="186"/>
+      <c r="D28" s="177"/>
       <c r="E28" s="70" t="s">
         <v>72</v>
       </c>
@@ -4996,10 +4945,10 @@
       <c r="B29" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="185" t="s">
+      <c r="C29" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="185"/>
+      <c r="D29" s="182"/>
       <c r="E29" s="66" t="s">
         <v>72</v>
       </c>
@@ -5020,10 +4969,10 @@
       <c r="B30" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="186" t="s">
+      <c r="C30" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="186"/>
+      <c r="D30" s="177"/>
       <c r="E30" s="70" t="s">
         <v>72</v>
       </c>
@@ -5044,10 +4993,10 @@
       <c r="B31" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="187" t="s">
+      <c r="C31" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="187"/>
+      <c r="D31" s="178"/>
       <c r="E31" s="68" t="s">
         <v>72</v>
       </c>
@@ -5079,10 +5028,10 @@
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A33" s="188" t="s">
+      <c r="A33" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="188"/>
+      <c r="B33" s="179"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
@@ -5095,76 +5044,76 @@
       <c r="L33" s="10"/>
     </row>
     <row r="34" spans="1:16" ht="15.6">
-      <c r="A34" s="189" t="s">
+      <c r="A34" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="190"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191"/>
+      <c r="B34" s="172"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181"/>
       <c r="G34" s="21"/>
       <c r="M34" s="3"/>
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:16" ht="15.6">
-      <c r="A35" s="192" t="s">
+      <c r="A35" s="171" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="190"/>
-      <c r="C35" s="171"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="171"/>
+      <c r="B35" s="172"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="176"/>
       <c r="M35" s="3"/>
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:16" ht="15.6">
-      <c r="A36" s="192" t="s">
+      <c r="A36" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="190"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
+      <c r="B36" s="172"/>
+      <c r="C36" s="173"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="173"/>
       <c r="M36" s="1"/>
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:16" ht="15.6">
-      <c r="A37" s="192" t="s">
+      <c r="A37" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="190"/>
-      <c r="C37" s="171"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="171"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="176"/>
       <c r="F37" s="1"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="169" t="s">
+      <c r="H37" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="I37" s="169"/>
-      <c r="J37" s="169" t="s">
+      <c r="I37" s="170"/>
+      <c r="J37" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="169"/>
+      <c r="K37" s="170"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:16" ht="15.6">
-      <c r="A38" s="192" t="s">
+      <c r="A38" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="190"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
+      <c r="B38" s="172"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="173"/>
       <c r="F38" s="1"/>
       <c r="G38" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="193"/>
-      <c r="I38" s="194"/>
-      <c r="J38" s="193"/>
-      <c r="K38" s="194"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="174"/>
+      <c r="K38" s="175"/>
       <c r="L38" s="11"/>
       <c r="M38" s="1"/>
     </row>
@@ -13505,33 +13454,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B22:F23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="A6:E6"/>
@@ -13548,6 +13470,33 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B22:F23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
@@ -13582,111 +13531,6 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="51.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="93.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1">
-      <c r="A1" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="195" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="195" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="195" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A2" s="196">
-        <v>1</v>
-      </c>
-      <c r="B2" s="197" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="196" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="196" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A3" s="196">
-        <v>2</v>
-      </c>
-      <c r="B3" s="197" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="196" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="196" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A4" s="196">
-        <v>3</v>
-      </c>
-      <c r="B4" s="197" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="196" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="196" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A5" s="196">
-        <v>4</v>
-      </c>
-      <c r="B5" s="197" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="196" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="196" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.6" thickBot="1">
-      <c r="A6" s="196">
-        <v>5</v>
-      </c>
-      <c r="B6" s="197" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="196" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="196" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
